--- a/Interfaces/LocoBufferEsp32/board/LocoBufferEsp32/doc/LocoBuffer-bom.xlsx
+++ b/Interfaces/LocoBufferEsp32/board/LocoBufferEsp32/doc/LocoBuffer-bom.xlsx
@@ -524,13 +524,13 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-06-21_13-18-50</t>
+    <t>2023-06-21_17-03-44</t>
   </si>
   <si>
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.2.1-36-g582732918d-dirty-deb11</t>
+    <t>7.0.5.1-1-g8f565ef7f0-dirty-deb11</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -1069,7 +1069,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="42.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
